--- a/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\RC-Plane\Systems Engineering\Phase A - Concept and Technology Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\Phase B - Preliminary Design and Technology Completition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369C4A3C-A0C2-47E4-81DF-95A97AD8A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD452A1-9117-4BE2-B51A-287012D8AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2430" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Budget" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Object</t>
   </si>
@@ -88,6 +88,78 @@
   </si>
   <si>
     <t>3S Lipo 2200mAh </t>
+  </si>
+  <si>
+    <t>Aircraft Frame Part Weight</t>
+  </si>
+  <si>
+    <t>Aircraft Wing</t>
+  </si>
+  <si>
+    <t>Aircraft Fuselage</t>
+  </si>
+  <si>
+    <t>Leading Edge</t>
+  </si>
+  <si>
+    <t>Trailing Edge</t>
+  </si>
+  <si>
+    <t>Aileron</t>
+  </si>
+  <si>
+    <t>Rear Spar</t>
+  </si>
+  <si>
+    <t>Front Spar</t>
+  </si>
+  <si>
+    <t>Ribs</t>
+  </si>
+  <si>
+    <t>End Cap Rib</t>
+  </si>
+  <si>
+    <t>15.7 Inch 3mm Carbon Rod</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Inner Tail</t>
+  </si>
+  <si>
+    <t>Outer Tail</t>
+  </si>
+  <si>
+    <t>Horizontal Stabilizers</t>
+  </si>
+  <si>
+    <t>Elevator</t>
+  </si>
+  <si>
+    <t>Fin and Rudder</t>
+  </si>
+  <si>
+    <t>1000mm x 8mm Carbon Tube x2</t>
+  </si>
+  <si>
+    <t>Wings</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>D2830 1000KV Brushless Motor</t>
+  </si>
+  <si>
+    <t>Landing Gear</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -191,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -199,6 +271,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -250,6 +328,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15E362D5-57C0-4E91-8AFA-EC2DF3D61039}" name="Table1" displayName="Table1" ref="I5:J16" totalsRowShown="0">
+  <autoFilter ref="I5:J16" xr:uid="{15E362D5-57C0-4E91-8AFA-EC2DF3D61039}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E7EF6D11-7729-4889-8A38-F72FDC386635}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{89B6D81E-EA41-4834-88E0-39BD414CC2B2}" name="Mass (g)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0FC6544C-8A3B-40A7-B26F-3BA54F3A5318}" name="Table16" displayName="Table16" ref="K5:L16" totalsRowShown="0">
+  <autoFilter ref="K5:L16" xr:uid="{0FC6544C-8A3B-40A7-B26F-3BA54F3A5318}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{263B7E5B-2E1A-4DA0-88D9-0A9E2043F126}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{92786BF3-1BD5-4F51-889D-ABFAA4B5DF83}" name="Mass (g)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}" name="Table29" displayName="Table29" ref="A5:B16" totalsRowShown="0">
   <autoFilter ref="A5:B16" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}"/>
   <tableColumns count="2">
@@ -260,7 +360,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}" name="Table310" displayName="Table310" ref="C5:D16" totalsRowShown="0">
   <autoFilter ref="C5:D16" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}"/>
   <tableColumns count="2">
@@ -271,7 +371,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}" name="Table411" displayName="Table411" ref="E5:F16" totalsRowShown="0">
   <autoFilter ref="E5:F16" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}"/>
   <tableColumns count="2">
@@ -545,23 +645,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -569,17 +673,21 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
         <f>B16+D16+F16</f>
-        <v>218.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1056.6500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -598,8 +706,16 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,20 +734,53 @@
       <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>14.9</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4">
+        <v>52</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="4">
+        <f>J16</f>
+        <v>338.5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4">
+        <v>34</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -644,10 +793,27 @@
       <c r="D7" s="4">
         <v>48</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4">
+        <f>L16</f>
+        <v>447.25</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -656,66 +822,154 @@
       <c r="D8" s="4">
         <v>120</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4">
+        <v>21</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4">
+        <v>37</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="3"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -728,23 +982,43 @@
       </c>
       <c r="D16" s="6">
         <f>SUM(D6:D15)</f>
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="6">
         <f>SUM(F6:F15)</f>
-        <v>0</v>
+        <v>785.75</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="6">
+        <f>SUM(J6:J15)*2</f>
+        <v>338.5</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="6">
+        <f>SUM(L6:L15)</f>
+        <v>447.25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -753,26 +1027,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C7A39F-1EB6-427B-9329-0D14A0290A39}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="A4:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -781,8 +1055,8 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,7 +1076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -822,7 +1096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -830,7 +1104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -844,7 +1118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -852,7 +1126,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>

--- a/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\Phase B - Preliminary Design and Technology Completition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD452A1-9117-4BE2-B51A-287012D8AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FF56D-4E6C-4BF0-AD7D-9141241C879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Budget" sheetId="1" r:id="rId1"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="B2">
         <f>B16+D16+F16</f>
-        <v>1056.6500000000001</v>
+        <v>1069.4000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -798,7 +798,7 @@
       </c>
       <c r="F7" s="4">
         <f>L16</f>
-        <v>447.25</v>
+        <v>460</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>21</v>
@@ -918,7 +918,8 @@
         <v>27</v>
       </c>
       <c r="L12" s="4">
-        <v>4.25</v>
+        <f>4*4.25</f>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -989,7 +990,7 @@
       </c>
       <c r="F16" s="6">
         <f>SUM(F6:F15)</f>
-        <v>785.75</v>
+        <v>798.5</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>8</v>
@@ -1003,7 +1004,7 @@
       </c>
       <c r="L16" s="6">
         <f>SUM(L6:L15)</f>
-        <v>447.25</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\Phase B - Preliminary Design and Technology Completition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272FF56D-4E6C-4BF0-AD7D-9141241C879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F550E0C-B251-4860-B454-7BA3DAC818FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Budget" sheetId="1" r:id="rId1"/>
-    <sheet name="Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Wing Mass and Time" sheetId="3" r:id="rId2"/>
+    <sheet name="Body Mass and Time" sheetId="4" r:id="rId3"/>
+    <sheet name="Cost" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
   <si>
     <t>Object</t>
   </si>
@@ -160,13 +162,187 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Print Object</t>
+  </si>
+  <si>
+    <t>Version 1</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Mass w/ Support</t>
+  </si>
+  <si>
+    <t>Rib 2</t>
+  </si>
+  <si>
+    <t>Rib 4</t>
+  </si>
+  <si>
+    <t>Rib 5</t>
+  </si>
+  <si>
+    <t>Rib 3</t>
+  </si>
+  <si>
+    <t>Rib 6</t>
+  </si>
+  <si>
+    <t>Rib 7</t>
+  </si>
+  <si>
+    <t>Rib 8</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>11/1:35</t>
+  </si>
+  <si>
+    <t>5/0:46</t>
+  </si>
+  <si>
+    <t>5/0:41</t>
+  </si>
+  <si>
+    <t>12/1:42</t>
+  </si>
+  <si>
+    <t>11/1:38</t>
+  </si>
+  <si>
+    <t>33/5:07</t>
+  </si>
+  <si>
+    <t>35/6:09</t>
+  </si>
+  <si>
+    <t>Servo Mount</t>
+  </si>
+  <si>
+    <t>21/3:09</t>
+  </si>
+  <si>
+    <t>19/2:55</t>
+  </si>
+  <si>
+    <t>Front Inner Spar</t>
+  </si>
+  <si>
+    <t>6/0:49</t>
+  </si>
+  <si>
+    <t>Front Mid Spar</t>
+  </si>
+  <si>
+    <t>9/1:08</t>
+  </si>
+  <si>
+    <t>Front Outer Spar</t>
+  </si>
+  <si>
+    <t>6/0:47</t>
+  </si>
+  <si>
+    <t>Leading Edge Outer</t>
+  </si>
+  <si>
+    <t>5/0:45</t>
+  </si>
+  <si>
+    <t>Leading Edge Inner</t>
+  </si>
+  <si>
+    <t>Leading Edge Mid (5x)</t>
+  </si>
+  <si>
+    <t>24/4:01</t>
+  </si>
+  <si>
+    <t>Rear Inner Spar</t>
+  </si>
+  <si>
+    <t>4/0:35</t>
+  </si>
+  <si>
+    <t>Rear Mid Spar</t>
+  </si>
+  <si>
+    <t>9/1:12</t>
+  </si>
+  <si>
+    <t>9/1:11</t>
+  </si>
+  <si>
+    <t>Rear Outer Spar</t>
+  </si>
+  <si>
+    <t>5/0:42</t>
+  </si>
+  <si>
+    <t>Outer Trailing Edge</t>
+  </si>
+  <si>
+    <t>4/1:14</t>
+  </si>
+  <si>
+    <t>Mid Trailing Edge</t>
+  </si>
+  <si>
+    <t>4/1:10</t>
+  </si>
+  <si>
+    <t>Inner Trailing Edge</t>
+  </si>
+  <si>
+    <t>4/1:12</t>
+  </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <t>Version 4</t>
+  </si>
+  <si>
+    <t>Version 5</t>
+  </si>
+  <si>
+    <t>Version 6</t>
+  </si>
+  <si>
+    <t>Version 7</t>
+  </si>
+  <si>
+    <t>Version 8</t>
+  </si>
+  <si>
+    <t>Version 9</t>
+  </si>
+  <si>
+    <t>Version 10</t>
+  </si>
+  <si>
+    <t>Version 11</t>
+  </si>
+  <si>
+    <t>w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 1 w/o Support</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +350,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +370,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -259,11 +453,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -277,11 +620,481 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="26">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -300,6 +1113,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B3B5CC73-7FC8-4C2B-9B3D-6062A380FDA6}" name="Object"/>
     <tableColumn id="2" xr3:uid="{F0B453FF-DDA5-4D53-9A49-3E28A67081AF}" name="Mass (g)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}" name="Table411" displayName="Table411" ref="E5:F16" totalsRowShown="0">
+  <autoFilter ref="E5:F16" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E7BA2C23-EE0D-48D0-8DBA-9ECFCDB718E6}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{1A2C6144-1E51-4613-A2BF-A592EEF1771F}" name="Cost ($)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -350,6 +1174,48 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{027D01CA-8610-4345-8080-A1CD5C2188E3}" name="Table7" displayName="Table7" ref="A6:L50" totalsRowShown="0" tableBorderDxfId="25">
+  <autoFilter ref="A6:L50" xr:uid="{027D01CA-8610-4345-8080-A1CD5C2188E3}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0AED2B6A-46A5-4321-AB11-649F79F3D0B9}" name="Print Object" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{3CE70BBD-3B54-4598-B1F6-CB070D8BD4D8}" name="Version 1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{12F2F954-D92F-4BC3-8B81-5DE2BE33B90C}" name="Version 2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{81265B2F-4ED1-49A7-832D-CB906F620E7A}" name="Version 3" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A7A4C044-289B-4F8F-84E0-5228383B6262}" name="Version 4" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{AF77F938-E80F-4254-8A92-A150282D163A}" name="Version 5" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{7D88C238-1FCF-4AC4-AB6E-2AD3B983C883}" name="Version 6" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{DE77B850-E7EB-44EA-829F-3DD145A74DD4}" name="Version 7" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{985740BC-A390-4BF7-8000-08B9DBDFCEB4}" name="Version 8" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{71A4CAB9-47C0-4006-B8A4-04E1A745B8CC}" name="Version 9" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{6C19270B-B1CC-4700-89F0-F7E8D4BB3D17}" name="Version 10" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{E10DA2D3-47BA-4415-AE49-7DB45B5282E2}" name="Version 11" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}" name="Table712" displayName="Table712" ref="A6:L50" totalsRowShown="0" tableBorderDxfId="12">
+  <autoFilter ref="A6:L50" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5C343FD2-19BA-4882-9D4C-803A265AF068}" name="Print Object" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B113C689-3915-448B-9AB7-FC0151F9A312}" name="Version 1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{413B06FA-3829-4C70-B614-13E35C329D16}" name="Version 2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{43CA958D-5EF9-48B8-A406-B64E01B693A4}" name="Version 3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{BCA1E467-9122-46F9-8332-ACCEA16AF55A}" name="Version 4" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{D049DFF9-86DD-4240-AEBD-DCB8F5CCE9A2}" name="Version 5" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E652D227-CFEE-4367-81A9-AACB3E03E502}" name="Version 6" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C5E7C2AE-E55C-4C18-9323-040525A11E82}" name="Version 7" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{79D67E5D-86F0-4F2F-A50B-29194A9EC622}" name="Version 8" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{5B1CFDFE-AE78-4816-A647-27012AB14CC7}" name="Version 9" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{B6CE62C4-C85A-4C0E-B699-F97E14FCE708}" name="Version 10" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{9463FB2D-57E2-4FC9-A471-E73221D73079}" name="Version 11" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}" name="Table29" displayName="Table29" ref="A5:B16" totalsRowShown="0">
   <autoFilter ref="A5:B16" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}"/>
   <tableColumns count="2">
@@ -360,23 +1226,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}" name="Table310" displayName="Table310" ref="C5:D16" totalsRowShown="0">
   <autoFilter ref="C5:D16" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{32AAEC9E-18AA-4FEB-9D7C-E2B8B5117BA8}" name="Object"/>
     <tableColumn id="2" xr3:uid="{37761C63-3D68-4E12-812C-377D98C8FCAE}" name="Cost ($)"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}" name="Table411" displayName="Table411" ref="E5:F16" totalsRowShown="0">
-  <autoFilter ref="E5:F16" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E7BA2C23-EE0D-48D0-8DBA-9ECFCDB718E6}" name="Object"/>
-    <tableColumn id="2" xr3:uid="{1A2C6144-1E51-4613-A2BF-A592EEF1771F}" name="Cost ($)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,6 +1880,1637 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8631C1-F72F-4DE1-9623-4C1C6EE3B8CC}">
+  <dimension ref="A2:N50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L50" sqref="A5:L50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:L5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA0C21-AB0E-4984-8008-AE93F5440F3E}">
+  <dimension ref="A4:L50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="15"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="15"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="15"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="15"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="15"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="15"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="15"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="15"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="15"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="13"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="15"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="15"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="15"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:L5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C7A39F-1EB6-427B-9329-0D14A0290A39}">
   <dimension ref="A1:F16"/>
   <sheetViews>

--- a/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\Phase B - Preliminary Design and Technology Completition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F550E0C-B251-4860-B454-7BA3DAC818FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2771BC-886D-43D0-8A3E-DD8F8C6FE8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Budget" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
   <si>
     <t>Object</t>
   </si>
@@ -200,111 +200,45 @@
     <t>Rib 8</t>
   </si>
   <si>
-    <t>Wing</t>
-  </si>
-  <si>
-    <t>11/1:35</t>
-  </si>
-  <si>
-    <t>5/0:46</t>
-  </si>
-  <si>
-    <t>5/0:41</t>
-  </si>
-  <si>
-    <t>12/1:42</t>
-  </si>
-  <si>
-    <t>11/1:38</t>
-  </si>
-  <si>
-    <t>33/5:07</t>
-  </si>
-  <si>
-    <t>35/6:09</t>
-  </si>
-  <si>
     <t>Servo Mount</t>
   </si>
   <si>
-    <t>21/3:09</t>
-  </si>
-  <si>
-    <t>19/2:55</t>
-  </si>
-  <si>
     <t>Front Inner Spar</t>
   </si>
   <si>
-    <t>6/0:49</t>
-  </si>
-  <si>
     <t>Front Mid Spar</t>
   </si>
   <si>
-    <t>9/1:08</t>
-  </si>
-  <si>
     <t>Front Outer Spar</t>
   </si>
   <si>
-    <t>6/0:47</t>
-  </si>
-  <si>
     <t>Leading Edge Outer</t>
   </si>
   <si>
-    <t>5/0:45</t>
-  </si>
-  <si>
     <t>Leading Edge Inner</t>
   </si>
   <si>
     <t>Leading Edge Mid (5x)</t>
   </si>
   <si>
-    <t>24/4:01</t>
-  </si>
-  <si>
     <t>Rear Inner Spar</t>
   </si>
   <si>
-    <t>4/0:35</t>
-  </si>
-  <si>
     <t>Rear Mid Spar</t>
   </si>
   <si>
-    <t>9/1:12</t>
-  </si>
-  <si>
-    <t>9/1:11</t>
-  </si>
-  <si>
     <t>Rear Outer Spar</t>
   </si>
   <si>
-    <t>5/0:42</t>
-  </si>
-  <si>
     <t>Outer Trailing Edge</t>
   </si>
   <si>
-    <t>4/1:14</t>
-  </si>
-  <si>
     <t>Mid Trailing Edge</t>
   </si>
   <si>
-    <t>4/1:10</t>
-  </si>
-  <si>
     <t>Inner Trailing Edge</t>
   </si>
   <si>
-    <t>4/1:12</t>
-  </si>
-  <si>
     <t>Version 3</t>
   </si>
   <si>
@@ -332,10 +266,151 @@
     <t>Version 11</t>
   </si>
   <si>
-    <t>w/ Supports</t>
-  </si>
-  <si>
     <t>Rib 1 w/o Support</t>
+  </si>
+  <si>
+    <t>Mid Body</t>
+  </si>
+  <si>
+    <t>Front Tail</t>
+  </si>
+  <si>
+    <t>Rear Tail</t>
+  </si>
+  <si>
+    <t>Left H.Stab</t>
+  </si>
+  <si>
+    <t>Right H.Stab</t>
+  </si>
+  <si>
+    <t>Left Elevator</t>
+  </si>
+  <si>
+    <t>Right Elevator</t>
+  </si>
+  <si>
+    <t>Elevator Merge</t>
+  </si>
+  <si>
+    <t>Rudder</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Body (Time to Print in Minutes)</t>
+  </si>
+  <si>
+    <t>Body (Material to Print in grams)</t>
+  </si>
+  <si>
+    <t>Wing (Mass to print in Grams)</t>
+  </si>
+  <si>
+    <t>Wing (Time to Print in Minutes)</t>
+  </si>
+  <si>
+    <t>Rib 1 w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 2 w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 3  w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 4  w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 5  w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 6  w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 7  w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 8 w/ Supports</t>
+  </si>
+  <si>
+    <t>Aileron  w/ Supports</t>
+  </si>
+  <si>
+    <t>Servo Mount w/ Supports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Front Inner Spar w/ Supports</t>
+  </si>
+  <si>
+    <t>Front Mid Spar  w/ Supports</t>
+  </si>
+  <si>
+    <t>Front Outer Spar  w/ Supports</t>
+  </si>
+  <si>
+    <t>Leading Edge Outer w/ Supports</t>
+  </si>
+  <si>
+    <t>Leading Edge Mid (5x) w/ Supports</t>
+  </si>
+  <si>
+    <t>Leading Edge Inner  w/ Supports</t>
+  </si>
+  <si>
+    <t>Rear Inner Spar w/ Supports</t>
+  </si>
+  <si>
+    <t>Rear Mid Spar w/ Supports</t>
+  </si>
+  <si>
+    <t>Rear Outer Spa w/ Supports</t>
+  </si>
+  <si>
+    <t>Outer Trailing Edge w/ Supports</t>
+  </si>
+  <si>
+    <t>Mid Trailing Edge w/ Supports</t>
+  </si>
+  <si>
+    <t>Inner Trailing Edge w/ Supports</t>
+  </si>
+  <si>
+    <t>Nose w/ Supports</t>
+  </si>
+  <si>
+    <t>Mid Body w/ Supports</t>
+  </si>
+  <si>
+    <t>Front Tail w/ Supports</t>
+  </si>
+  <si>
+    <t>Rear Tail w/ Supports</t>
+  </si>
+  <si>
+    <t>Left H.Stab w/ Supports</t>
+  </si>
+  <si>
+    <t>Right H.Stab w/ Supports</t>
+  </si>
+  <si>
+    <t>Left Elevator w/ Supports</t>
+  </si>
+  <si>
+    <t>Right Elevator w/ Supports</t>
+  </si>
+  <si>
+    <t>Elevator Merge w/ Supports</t>
+  </si>
+  <si>
+    <t>Rudder w/ Supports</t>
+  </si>
+  <si>
+    <t>Fin w/ Supports</t>
   </si>
 </sst>
 </file>
@@ -606,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -614,12 +689,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,7 +704,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,11 +720,456 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="52">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1119,6 +1639,28 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}" name="Table29" displayName="Table29" ref="A5:B16" totalsRowShown="0">
+  <autoFilter ref="A5:B16" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{252B32B6-6A76-42E1-88D7-9B105DD78EDD}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{6185D890-50AD-4614-AC0C-D2BDEE2F07B6}" name="Cost ($)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}" name="Table310" displayName="Table310" ref="C5:D16" totalsRowShown="0">
+  <autoFilter ref="C5:D16" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{32AAEC9E-18AA-4FEB-9D7C-E2B8B5117BA8}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{37761C63-3D68-4E12-812C-377D98C8FCAE}" name="Cost ($)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}" name="Table411" displayName="Table411" ref="E5:F16" totalsRowShown="0">
   <autoFilter ref="E5:F16" xr:uid="{A1788C5E-740A-4939-9C59-B3C2CF35DE48}"/>
   <tableColumns count="2">
@@ -1174,66 +1716,86 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{027D01CA-8610-4345-8080-A1CD5C2188E3}" name="Table7" displayName="Table7" ref="A6:L50" totalsRowShown="0" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{027D01CA-8610-4345-8080-A1CD5C2188E3}" name="Table7" displayName="Table7" ref="A6:L50" totalsRowShown="0" tableBorderDxfId="51">
   <autoFilter ref="A6:L50" xr:uid="{027D01CA-8610-4345-8080-A1CD5C2188E3}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0AED2B6A-46A5-4321-AB11-649F79F3D0B9}" name="Print Object" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{3CE70BBD-3B54-4598-B1F6-CB070D8BD4D8}" name="Version 1" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{12F2F954-D92F-4BC3-8B81-5DE2BE33B90C}" name="Version 2" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{81265B2F-4ED1-49A7-832D-CB906F620E7A}" name="Version 3" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A7A4C044-289B-4F8F-84E0-5228383B6262}" name="Version 4" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{AF77F938-E80F-4254-8A92-A150282D163A}" name="Version 5" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{7D88C238-1FCF-4AC4-AB6E-2AD3B983C883}" name="Version 6" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{DE77B850-E7EB-44EA-829F-3DD145A74DD4}" name="Version 7" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{985740BC-A390-4BF7-8000-08B9DBDFCEB4}" name="Version 8" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{71A4CAB9-47C0-4006-B8A4-04E1A745B8CC}" name="Version 9" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{6C19270B-B1CC-4700-89F0-F7E8D4BB3D17}" name="Version 10" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{E10DA2D3-47BA-4415-AE49-7DB45B5282E2}" name="Version 11" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{0AED2B6A-46A5-4321-AB11-649F79F3D0B9}" name="Print Object" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{3CE70BBD-3B54-4598-B1F6-CB070D8BD4D8}" name="Version 1" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{12F2F954-D92F-4BC3-8B81-5DE2BE33B90C}" name="Version 2" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{81265B2F-4ED1-49A7-832D-CB906F620E7A}" name="Version 3" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{A7A4C044-289B-4F8F-84E0-5228383B6262}" name="Version 4" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{AF77F938-E80F-4254-8A92-A150282D163A}" name="Version 5" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{7D88C238-1FCF-4AC4-AB6E-2AD3B983C883}" name="Version 6" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{DE77B850-E7EB-44EA-829F-3DD145A74DD4}" name="Version 7" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{985740BC-A390-4BF7-8000-08B9DBDFCEB4}" name="Version 8" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{71A4CAB9-47C0-4006-B8A4-04E1A745B8CC}" name="Version 9" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{6C19270B-B1CC-4700-89F0-F7E8D4BB3D17}" name="Version 10" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{E10DA2D3-47BA-4415-AE49-7DB45B5282E2}" name="Version 11" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}" name="Table712" displayName="Table712" ref="A6:L50" totalsRowShown="0" tableBorderDxfId="12">
-  <autoFilter ref="A6:L50" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5C223C48-2AD9-4D46-A14D-FC6F93AE1C43}" name="Table713" displayName="Table713" ref="A55:L99" totalsRowShown="0" tableBorderDxfId="14">
+  <autoFilter ref="A55:L99" xr:uid="{5C223C48-2AD9-4D46-A14D-FC6F93AE1C43}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5C343FD2-19BA-4882-9D4C-803A265AF068}" name="Print Object" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B113C689-3915-448B-9AB7-FC0151F9A312}" name="Version 1" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{413B06FA-3829-4C70-B614-13E35C329D16}" name="Version 2" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{43CA958D-5EF9-48B8-A406-B64E01B693A4}" name="Version 3" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{BCA1E467-9122-46F9-8332-ACCEA16AF55A}" name="Version 4" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{D049DFF9-86DD-4240-AEBD-DCB8F5CCE9A2}" name="Version 5" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E652D227-CFEE-4367-81A9-AACB3E03E502}" name="Version 6" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{C5E7C2AE-E55C-4C18-9323-040525A11E82}" name="Version 7" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{79D67E5D-86F0-4F2F-A50B-29194A9EC622}" name="Version 8" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{5B1CFDFE-AE78-4816-A647-27012AB14CC7}" name="Version 9" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{B6CE62C4-C85A-4C0E-B699-F97E14FCE708}" name="Version 10" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{9463FB2D-57E2-4FC9-A471-E73221D73079}" name="Version 11" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F7968928-BF24-453B-8757-F1830CCB8DA0}" name="Print Object" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3EDC1079-6583-4434-9CBF-06A7D9130C1C}" name="Version 1" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{74D59100-06E2-4B66-ADF2-1946750CE2D3}" name="Version 2" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E629CC2A-8E5B-4C94-B49A-F413B7676404}" name="Version 3" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{C7817F03-BF04-4C9A-B27E-6B32DB1BE973}" name="Version 4" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{043E39C9-7FED-4765-A7D8-1675E0AB2B55}" name="Version 5" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{E305CEF4-0AE6-425B-8AF0-81B347B96FF9}" name="Version 6" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{87265F38-A271-41FB-8AC9-963BAE9BC901}" name="Version 7" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{7F3ACC0A-1569-4BB9-AC08-BB378F8FED69}" name="Version 8" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{3BB34B19-A3FB-4E64-BC90-10CE283B5222}" name="Version 9" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{A1AD896D-26C3-4AF8-8CA0-97AD384FCDE1}" name="Version 10" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{079B257B-3DC7-43D8-BCAB-015DAD091864}" name="Version 11" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}" name="Table29" displayName="Table29" ref="A5:B16" totalsRowShown="0">
-  <autoFilter ref="A5:B16" xr:uid="{31EFEA35-DC94-49DB-8F3C-31FA9FEE7EA0}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{252B32B6-6A76-42E1-88D7-9B105DD78EDD}" name="Object"/>
-    <tableColumn id="2" xr3:uid="{6185D890-50AD-4614-AC0C-D2BDEE2F07B6}" name="Cost ($)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}" name="Table712" displayName="Table712" ref="A6:L28" totalsRowShown="0" tableBorderDxfId="38">
+  <autoFilter ref="A6:L28" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{5C343FD2-19BA-4882-9D4C-803A265AF068}" name="Print Object" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{B113C689-3915-448B-9AB7-FC0151F9A312}" name="Version 1" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{413B06FA-3829-4C70-B614-13E35C329D16}" name="Version 2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{43CA958D-5EF9-48B8-A406-B64E01B693A4}" name="Version 3" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{BCA1E467-9122-46F9-8332-ACCEA16AF55A}" name="Version 4" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{D049DFF9-86DD-4240-AEBD-DCB8F5CCE9A2}" name="Version 5" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{E652D227-CFEE-4367-81A9-AACB3E03E502}" name="Version 6" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{C5E7C2AE-E55C-4C18-9323-040525A11E82}" name="Version 7" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{79D67E5D-86F0-4F2F-A50B-29194A9EC622}" name="Version 8" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{5B1CFDFE-AE78-4816-A647-27012AB14CC7}" name="Version 9" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{B6CE62C4-C85A-4C0E-B699-F97E14FCE708}" name="Version 10" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{9463FB2D-57E2-4FC9-A471-E73221D73079}" name="Version 11" dataDxfId="26"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}" name="Table310" displayName="Table310" ref="C5:D16" totalsRowShown="0">
-  <autoFilter ref="C5:D16" xr:uid="{EE2C1C97-219D-47EB-BFF4-6B4D16838243}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{32AAEC9E-18AA-4FEB-9D7C-E2B8B5117BA8}" name="Object"/>
-    <tableColumn id="2" xr3:uid="{37761C63-3D68-4E12-812C-377D98C8FCAE}" name="Cost ($)"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{919F50E1-CF56-45A1-A0E3-9750DD6B3763}" name="Table7127" displayName="Table7127" ref="A32:L54" totalsRowShown="0" tableBorderDxfId="25">
+  <autoFilter ref="A32:L54" xr:uid="{919F50E1-CF56-45A1-A0E3-9750DD6B3763}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{80509EED-5B97-4F79-AA61-8AACE4026B76}" name="Print Object" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{02589C00-25C9-4873-A515-155E55163F09}" name="Version 1" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{CB036863-8727-434B-ACA4-1EBEFBEE9355}" name="Version 2" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{7A05322A-F751-4E28-AE33-4E366F1A3CF8}" name="Version 3" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{98F99E73-78AA-47D6-AAE7-DBD71A68E971}" name="Version 4" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{1F9D9D5D-7134-44CF-9383-B83871430E6C}" name="Version 5" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{CC85BFA5-8527-4273-B4D5-F8E162F0B2B5}" name="Version 6" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{5B2641A7-D108-46B7-AA57-1C92BFAF7B91}" name="Version 7" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{532CC23F-C395-44D4-ABE9-B2451B4CB13F}" name="Version 8" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{7F8B31AE-946C-42DE-B309-4CEBACDB3321}" name="Version 9" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{BD6CE235-EBEA-4435-899E-DCDF65E2B8BE}" name="Version 10" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{0218C04B-39E0-4C8C-9341-3728689BA17A}" name="Version 11" dataDxfId="15"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1561,14 +2123,14 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="18"/>
+      <c r="K4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -1881,15 +2443,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8631C1-F72F-4DE1-9623-4C1C6EE3B8CC}">
-  <dimension ref="A2:N50"/>
+  <dimension ref="A2:N99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L50" sqref="A5:L50"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.54296875" customWidth="1"/>
     <col min="7" max="10" width="10.90625" bestFit="1" customWidth="1"/>
@@ -1909,7 +2471,7 @@
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1922,8 +2484,8 @@
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -1936,850 +2498,1699 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="8">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="10">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8">
+        <v>5</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="8">
+        <v>11</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="10">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="10">
+        <v>35</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="10">
+        <v>21</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="8">
+        <v>9</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="8">
+        <v>9</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="8">
+        <v>6</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="10">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="8">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="8">
+        <v>24</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="8">
+        <v>5</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="8">
+        <v>5</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="8">
+        <v>4</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="8">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="8">
+        <v>9</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="10">
+        <v>9</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="8">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="10">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="8">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="8">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="8">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="8">
+        <v>4</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="8">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="8">
+        <v>4</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="15"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s">
+        <v>73</v>
+      </c>
+      <c r="L55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="8">
+        <v>95</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B57" s="10">
+        <v>95</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="8">
+        <v>46</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B59" s="8">
+        <v>46</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="8">
+        <v>46</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="I6" t="s">
+      <c r="B61" s="8">
+        <v>46</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="8">
+        <v>41</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="9"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J6" t="s">
+      <c r="B63" s="8">
+        <v>41</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="8">
+        <v>41</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="K6" t="s">
+      <c r="B65" s="8">
+        <v>41</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="8">
+        <v>41</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L6" t="s">
+      <c r="B67" s="8">
+        <v>41</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B68" s="8">
+        <v>46</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="B69" s="8">
+        <v>46</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="8">
         <v>98</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="10">
+        <v>102</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="8">
+        <v>307</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" s="10">
+        <v>369</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="8">
+        <v>175</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="10">
+        <v>189</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+      <c r="B76" s="8">
+        <v>49</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B77" s="8">
+        <v>49</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="8">
+        <v>68</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="8">
+        <v>68</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" s="8">
+        <v>47</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="8">
+        <v>47</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="8">
+        <v>45</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="10">
         <v>46</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="8">
+        <v>241</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" s="8">
+        <v>241</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="12" t="s">
+      <c r="B86" s="8">
+        <v>41</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="8">
+        <v>41</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="11"/>
+    </row>
+    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
+      <c r="B88" s="8">
+        <v>35</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B89" s="8">
+        <v>35</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A90" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B90" s="8">
+        <v>71</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="10">
+        <v>72</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="8">
+        <v>41</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="10">
+        <v>42</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="15" t="s">
+      <c r="B94" s="8">
+        <v>74</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="8">
+        <v>74</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="11"/>
+    </row>
+    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B96" s="8">
+        <v>70</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9"/>
+    </row>
+    <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="8">
+        <v>70</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+      <c r="B98" s="8">
         <v>72</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13"/>
-    </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="13"/>
-    </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="17"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" s="8">
+        <v>72</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A54:L54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA0C21-AB0E-4984-8008-AE93F5440F3E}">
-  <dimension ref="A4:L50"/>
+  <dimension ref="A4:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2787,7 +4198,7 @@
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -2812,700 +4223,905 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="8">
         <v>88</v>
       </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C7" s="8">
+        <v>75</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="10">
+        <v>67</v>
+      </c>
+      <c r="C8" s="10">
         <v>93</v>
       </c>
-      <c r="J6" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
+      <c r="A9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="8">
+        <v>104</v>
+      </c>
+      <c r="C9" s="8">
+        <v>114</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
+      <c r="A10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="8">
+        <v>118</v>
+      </c>
+      <c r="C10" s="10">
+        <v>129</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+      <c r="A11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="8">
+        <v>64</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
+      <c r="A12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="8">
+        <v>66</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
+      <c r="A13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="8">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="8">
+        <v>31</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
+      <c r="A15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="8">
+        <v>30</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="8">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="8">
+        <v>30</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
+      <c r="A18" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="8">
+        <v>32</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
+      <c r="A20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="8">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="8">
+        <v>10</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+      <c r="A22" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="8">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+      <c r="A24" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="10">
+        <v>10</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
+      <c r="A26" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="10">
+        <v>10</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
+      <c r="A27" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="8">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13"/>
-    </row>
+      <c r="A28" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="8">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
+      <c r="A31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10">
+        <v>660</v>
+      </c>
+      <c r="C33" s="8">
+        <v>746</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="13"/>
+      <c r="A34" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="22">
+        <v>934</v>
+      </c>
+      <c r="C34" s="10">
+        <v>964</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
+      <c r="A35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1074</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1158</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
+      <c r="A36" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1256</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1325</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
+      <c r="A37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="8">
+        <v>711</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="13"/>
+      <c r="A38" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="8">
+        <v>704</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
+      <c r="A39" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="8">
+        <v>321</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
+      <c r="A40" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="8">
+        <v>321</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="8">
+        <v>294</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
+      <c r="A42" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="8">
+        <v>329</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="8">
+        <v>296</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="13"/>
+      <c r="A44" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="8">
+        <v>329</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
+      <c r="A45" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="8">
+        <v>145</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="13"/>
+      <c r="A46" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="8">
+        <v>146</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="15"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
+      <c r="A47" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="8">
+        <v>145</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="13"/>
+      <c r="A48" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="8">
+        <v>146</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
+      <c r="A49" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="8">
+        <v>11</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="17"/>
+      <c r="A50" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="8">
+        <v>11</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="10">
+        <v>127</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="10">
+        <v>127</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="8">
+        <v>239</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="8">
+        <v>268</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A31:L31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\Phase B - Preliminary Design and Technology Completition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2771BC-886D-43D0-8A3E-DD8F8C6FE8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60C97D-0011-46D6-BB49-340B71A9319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -720,12 +720,191 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="52">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -762,15 +941,23 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
+        <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
+        <right style="medium">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -783,7 +970,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="medium">
+        <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
@@ -959,203 +1146,15 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
+        <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <top/>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -1737,63 +1736,63 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5C223C48-2AD9-4D46-A14D-FC6F93AE1C43}" name="Table713" displayName="Table713" ref="A55:L99" totalsRowShown="0" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{5C223C48-2AD9-4D46-A14D-FC6F93AE1C43}" name="Table713" displayName="Table713" ref="A55:L99" totalsRowShown="0" tableBorderDxfId="38">
   <autoFilter ref="A55:L99" xr:uid="{5C223C48-2AD9-4D46-A14D-FC6F93AE1C43}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F7968928-BF24-453B-8757-F1830CCB8DA0}" name="Print Object" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{3EDC1079-6583-4434-9CBF-06A7D9130C1C}" name="Version 1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{74D59100-06E2-4B66-ADF2-1946750CE2D3}" name="Version 2" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E629CC2A-8E5B-4C94-B49A-F413B7676404}" name="Version 3" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{C7817F03-BF04-4C9A-B27E-6B32DB1BE973}" name="Version 4" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{043E39C9-7FED-4765-A7D8-1675E0AB2B55}" name="Version 5" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E305CEF4-0AE6-425B-8AF0-81B347B96FF9}" name="Version 6" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{87265F38-A271-41FB-8AC9-963BAE9BC901}" name="Version 7" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{7F3ACC0A-1569-4BB9-AC08-BB378F8FED69}" name="Version 8" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{3BB34B19-A3FB-4E64-BC90-10CE283B5222}" name="Version 9" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{A1AD896D-26C3-4AF8-8CA0-97AD384FCDE1}" name="Version 10" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{079B257B-3DC7-43D8-BCAB-015DAD091864}" name="Version 11" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F7968928-BF24-453B-8757-F1830CCB8DA0}" name="Print Object" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{3EDC1079-6583-4434-9CBF-06A7D9130C1C}" name="Version 1" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{74D59100-06E2-4B66-ADF2-1946750CE2D3}" name="Version 2" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{E629CC2A-8E5B-4C94-B49A-F413B7676404}" name="Version 3" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{C7817F03-BF04-4C9A-B27E-6B32DB1BE973}" name="Version 4" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{043E39C9-7FED-4765-A7D8-1675E0AB2B55}" name="Version 5" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{E305CEF4-0AE6-425B-8AF0-81B347B96FF9}" name="Version 6" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{87265F38-A271-41FB-8AC9-963BAE9BC901}" name="Version 7" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{7F3ACC0A-1569-4BB9-AC08-BB378F8FED69}" name="Version 8" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{3BB34B19-A3FB-4E64-BC90-10CE283B5222}" name="Version 9" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{A1AD896D-26C3-4AF8-8CA0-97AD384FCDE1}" name="Version 10" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{079B257B-3DC7-43D8-BCAB-015DAD091864}" name="Version 11" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}" name="Table712" displayName="Table712" ref="A6:L28" totalsRowShown="0" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}" name="Table712" displayName="Table712" ref="A6:L28" totalsRowShown="0" tableBorderDxfId="25">
   <autoFilter ref="A6:L28" xr:uid="{790ECA6C-716B-4E77-91EF-09BC116714FE}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5C343FD2-19BA-4882-9D4C-803A265AF068}" name="Print Object" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{B113C689-3915-448B-9AB7-FC0151F9A312}" name="Version 1" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{413B06FA-3829-4C70-B614-13E35C329D16}" name="Version 2" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{43CA958D-5EF9-48B8-A406-B64E01B693A4}" name="Version 3" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{BCA1E467-9122-46F9-8332-ACCEA16AF55A}" name="Version 4" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{D049DFF9-86DD-4240-AEBD-DCB8F5CCE9A2}" name="Version 5" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{E652D227-CFEE-4367-81A9-AACB3E03E502}" name="Version 6" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{C5E7C2AE-E55C-4C18-9323-040525A11E82}" name="Version 7" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{79D67E5D-86F0-4F2F-A50B-29194A9EC622}" name="Version 8" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{5B1CFDFE-AE78-4816-A647-27012AB14CC7}" name="Version 9" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{B6CE62C4-C85A-4C0E-B699-F97E14FCE708}" name="Version 10" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{9463FB2D-57E2-4FC9-A471-E73221D73079}" name="Version 11" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5C343FD2-19BA-4882-9D4C-803A265AF068}" name="Print Object" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{B113C689-3915-448B-9AB7-FC0151F9A312}" name="Version 1" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{413B06FA-3829-4C70-B614-13E35C329D16}" name="Version 2" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{43CA958D-5EF9-48B8-A406-B64E01B693A4}" name="Version 3" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{BCA1E467-9122-46F9-8332-ACCEA16AF55A}" name="Version 4" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{D049DFF9-86DD-4240-AEBD-DCB8F5CCE9A2}" name="Version 5" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{E652D227-CFEE-4367-81A9-AACB3E03E502}" name="Version 6" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{C5E7C2AE-E55C-4C18-9323-040525A11E82}" name="Version 7" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{79D67E5D-86F0-4F2F-A50B-29194A9EC622}" name="Version 8" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{5B1CFDFE-AE78-4816-A647-27012AB14CC7}" name="Version 9" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{B6CE62C4-C85A-4C0E-B699-F97E14FCE708}" name="Version 10" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{9463FB2D-57E2-4FC9-A471-E73221D73079}" name="Version 11" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{919F50E1-CF56-45A1-A0E3-9750DD6B3763}" name="Table7127" displayName="Table7127" ref="A32:L54" totalsRowShown="0" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{919F50E1-CF56-45A1-A0E3-9750DD6B3763}" name="Table7127" displayName="Table7127" ref="A32:L54" totalsRowShown="0" tableBorderDxfId="12">
   <autoFilter ref="A32:L54" xr:uid="{919F50E1-CF56-45A1-A0E3-9750DD6B3763}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{80509EED-5B97-4F79-AA61-8AACE4026B76}" name="Print Object" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{02589C00-25C9-4873-A515-155E55163F09}" name="Version 1" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{CB036863-8727-434B-ACA4-1EBEFBEE9355}" name="Version 2" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{7A05322A-F751-4E28-AE33-4E366F1A3CF8}" name="Version 3" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{98F99E73-78AA-47D6-AAE7-DBD71A68E971}" name="Version 4" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{1F9D9D5D-7134-44CF-9383-B83871430E6C}" name="Version 5" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{CC85BFA5-8527-4273-B4D5-F8E162F0B2B5}" name="Version 6" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{5B2641A7-D108-46B7-AA57-1C92BFAF7B91}" name="Version 7" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{532CC23F-C395-44D4-ABE9-B2451B4CB13F}" name="Version 8" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{7F8B31AE-946C-42DE-B309-4CEBACDB3321}" name="Version 9" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{BD6CE235-EBEA-4435-899E-DCDF65E2B8BE}" name="Version 10" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{0218C04B-39E0-4C8C-9341-3728689BA17A}" name="Version 11" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{80509EED-5B97-4F79-AA61-8AACE4026B76}" name="Print Object" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{02589C00-25C9-4873-A515-155E55163F09}" name="Version 1" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CB036863-8727-434B-ACA4-1EBEFBEE9355}" name="Version 2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{7A05322A-F751-4E28-AE33-4E366F1A3CF8}" name="Version 3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{98F99E73-78AA-47D6-AAE7-DBD71A68E971}" name="Version 4" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{1F9D9D5D-7134-44CF-9383-B83871430E6C}" name="Version 5" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{CC85BFA5-8527-4273-B4D5-F8E162F0B2B5}" name="Version 6" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{5B2641A7-D108-46B7-AA57-1C92BFAF7B91}" name="Version 7" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{532CC23F-C395-44D4-ABE9-B2451B4CB13F}" name="Version 8" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{7F8B31AE-946C-42DE-B309-4CEBACDB3321}" name="Version 9" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{BD6CE235-EBEA-4435-899E-DCDF65E2B8BE}" name="Version 10" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{0218C04B-39E0-4C8C-9341-3728689BA17A}" name="Version 11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4185,7 +4184,7 @@
   <dimension ref="A4:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4258,7 +4257,7 @@
         <v>88</v>
       </c>
       <c r="C7" s="8">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -4278,7 +4277,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="10">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -4298,7 +4297,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -4318,7 +4317,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="10">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4717,7 +4716,7 @@
         <v>660</v>
       </c>
       <c r="C33" s="8">
-        <v>746</v>
+        <v>720</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -4733,11 +4732,11 @@
       <c r="A34" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="8">
         <v>934</v>
       </c>
       <c r="C34" s="10">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -4757,7 +4756,7 @@
         <v>1074</v>
       </c>
       <c r="C35" s="8">
-        <v>1158</v>
+        <v>1092</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -4777,7 +4776,7 @@
         <v>1256</v>
       </c>
       <c r="C36" s="10">
-        <v>1325</v>
+        <v>1338</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>

--- a/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
+++ b/Systems Engineering/Phase B - Preliminary Design and Technology Completition/Technical Resource Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\RC-Plane\Systems Engineering\Phase B - Preliminary Design and Technology Completition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\RC-Plane\Systems Engineering\Phase B - Preliminary Design and Technology Completition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E60C97D-0011-46D6-BB49-340B71A9319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269735E0-C965-4264-9A23-2A3C1FFCDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2430" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Budget" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="124">
   <si>
     <t>Object</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Servo Mount w/ Supports</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Front Inner Spar w/ Supports</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Fin w/ Supports</t>
+  </si>
+  <si>
+    <t>Rib 1</t>
   </si>
 </sst>
 </file>
@@ -2067,21 +2067,21 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2098,12 +2098,12 @@
         <v>1069.4000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
@@ -2257,7 +2257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
@@ -2277,7 +2277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="3"/>
@@ -2297,7 +2297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
@@ -2317,7 +2317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="3"/>
@@ -2338,7 +2338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="3"/>
@@ -2358,7 +2358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="3"/>
@@ -2374,7 +2374,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="3"/>
@@ -2386,7 +2386,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -2444,31 +2444,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8631C1-F72F-4DE1-9623-4C1C6EE3B8CC}">
   <dimension ref="A2:N99"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
-    <col min="7" max="10" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>88</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2526,14 +2526,16 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B7" s="8">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -2544,14 +2546,16 @@
       <c r="K7" s="8"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="10">
         <v>11</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>11</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -2562,14 +2566,16 @@
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="8">
         <v>5</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -2580,14 +2586,16 @@
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B10" s="8">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>4</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2598,14 +2606,16 @@
       <c r="K10" s="10"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B11" s="8">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="10">
+        <v>4</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -2616,14 +2626,16 @@
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="10">
+        <v>4</v>
+      </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2634,14 +2646,16 @@
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="8">
         <v>5</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="10">
+        <v>4</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -2652,14 +2666,16 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B14" s="8">
         <v>5</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>4</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2670,14 +2686,16 @@
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B15" s="8">
         <v>5</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="10">
+        <v>4</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2688,14 +2706,16 @@
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="8">
         <v>5</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10">
+        <v>4</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -2706,14 +2726,16 @@
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="8">
         <v>5</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2724,14 +2746,16 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10">
+        <v>4</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2742,14 +2766,16 @@
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B19" s="8">
         <v>5</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2760,14 +2786,16 @@
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B20" s="8">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="10">
+        <v>4</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2778,14 +2806,16 @@
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="8">
         <v>11</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="8">
+        <v>13</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2796,14 +2826,16 @@
       <c r="K21" s="8"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B22" s="10">
         <v>12</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="10">
+        <v>13</v>
+      </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2814,14 +2846,16 @@
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="8">
         <v>33</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8">
+        <v>41</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2832,14 +2866,16 @@
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B24" s="10">
         <v>35</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="10">
+        <v>43</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2850,14 +2886,16 @@
       <c r="K24" s="10"/>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="8">
         <v>19</v>
       </c>
-      <c r="C25" s="8"/>
+      <c r="C25" s="8">
+        <v>24</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2868,14 +2906,16 @@
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="10">
         <v>21</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10">
+        <v>28</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2886,14 +2926,16 @@
       <c r="K26" s="10"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="8">
         <v>6</v>
       </c>
-      <c r="C27" s="8"/>
+      <c r="C27" s="8">
+        <v>6</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -2904,14 +2946,16 @@
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="B28" s="8">
+        <v>6</v>
+      </c>
+      <c r="C28" s="10">
+        <v>6</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -2922,14 +2966,16 @@
       <c r="K28" s="10"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B29" s="8">
         <v>9</v>
       </c>
-      <c r="C29" s="8"/>
+      <c r="C29" s="8">
+        <v>8</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -2940,14 +2986,16 @@
       <c r="K29" s="8"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="8">
         <v>9</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="10">
+        <v>8</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -2958,14 +3006,16 @@
       <c r="K30" s="10"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="8">
-        <v>9</v>
-      </c>
-      <c r="C31" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C31" s="8">
+        <v>6</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -2976,14 +3026,16 @@
       <c r="K31" s="8"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="8">
         <v>6</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="10">
+        <v>6</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -2994,14 +3046,16 @@
       <c r="K32" s="10"/>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B33" s="8">
         <v>5</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8">
+        <v>6</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3012,14 +3066,16 @@
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="10">
         <v>5</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="10">
+        <v>6</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -3030,14 +3086,16 @@
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B35" s="8">
         <v>24</v>
       </c>
-      <c r="C35" s="8"/>
+      <c r="C35" s="8">
+        <v>29</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -3048,14 +3106,16 @@
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="8">
         <v>24</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="10">
+        <v>29</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -3066,14 +3126,16 @@
       <c r="K36" s="10"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B37" s="8">
         <v>5</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8">
+        <v>6</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -3084,14 +3146,16 @@
       <c r="K37" s="8"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="8">
         <v>5</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="10">
+        <v>6</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -3102,14 +3166,16 @@
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="8">
         <v>4</v>
       </c>
-      <c r="C39" s="8"/>
+      <c r="C39" s="8">
+        <v>4</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -3120,14 +3186,16 @@
       <c r="K39" s="8"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="8">
         <v>4</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3138,14 +3206,16 @@
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="8">
         <v>9</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8">
+        <v>9</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -3156,14 +3226,16 @@
       <c r="K41" s="8"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="10">
         <v>9</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="10">
+        <v>9</v>
+      </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -3174,14 +3246,16 @@
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="8">
         <v>5</v>
       </c>
-      <c r="C43" s="8"/>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -3192,14 +3266,16 @@
       <c r="K43" s="8"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="10">
         <v>5</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="10">
+        <v>5</v>
+      </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -3210,14 +3286,16 @@
       <c r="K44" s="10"/>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="8">
         <v>4</v>
       </c>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8">
+        <v>10</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -3228,14 +3306,16 @@
       <c r="K45" s="8"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="8">
         <v>4</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="10">
+        <v>10</v>
+      </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3246,14 +3326,16 @@
       <c r="K46" s="10"/>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B47" s="8">
         <v>4</v>
       </c>
-      <c r="C47" s="8"/>
+      <c r="C47" s="8">
+        <v>10</v>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -3264,14 +3346,16 @@
       <c r="K47" s="8"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="8">
         <v>4</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="10">
+        <v>10</v>
+      </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -3282,14 +3366,16 @@
       <c r="K48" s="10"/>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="8">
         <v>4</v>
       </c>
-      <c r="C49" s="8"/>
+      <c r="C49" s="8">
+        <v>10</v>
+      </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -3300,14 +3386,16 @@
       <c r="K49" s="8"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B50" s="8">
         <v>4</v>
       </c>
-      <c r="C50" s="12"/>
+      <c r="C50" s="12">
+        <v>10</v>
+      </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -3318,8 +3406,8 @@
       <c r="K50" s="12"/>
       <c r="L50" s="15"/>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
         <v>89</v>
       </c>
@@ -3335,7 +3423,7 @@
       <c r="K54" s="20"/>
       <c r="L54" s="21"/>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -3373,14 +3461,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>75</v>
       </c>
       <c r="B56" s="8">
         <v>95</v>
       </c>
-      <c r="C56" s="8"/>
+      <c r="C56" s="8">
+        <v>98</v>
+      </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -3391,14 +3481,16 @@
       <c r="K56" s="8"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B57" s="10">
         <v>95</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="10">
+        <v>103</v>
+      </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
@@ -3409,14 +3501,16 @@
       <c r="K57" s="10"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B58" s="8">
         <v>46</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="8">
+        <v>41</v>
+      </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -3427,14 +3521,16 @@
       <c r="K58" s="8"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B59" s="8">
         <v>46</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="10">
+        <v>41</v>
+      </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
@@ -3445,14 +3541,16 @@
       <c r="K59" s="10"/>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="8">
         <v>46</v>
       </c>
-      <c r="C60" s="8"/>
+      <c r="C60" s="10">
+        <v>41</v>
+      </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -3463,14 +3561,16 @@
       <c r="K60" s="8"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>92</v>
       </c>
       <c r="B61" s="8">
         <v>46</v>
       </c>
-      <c r="C61" s="10"/>
+      <c r="C61" s="10">
+        <v>41</v>
+      </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -3481,14 +3581,16 @@
       <c r="K61" s="10"/>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B62" s="8">
         <v>41</v>
       </c>
-      <c r="C62" s="8"/>
+      <c r="C62" s="10">
+        <v>39</v>
+      </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -3499,14 +3601,16 @@
       <c r="K62" s="8"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B63" s="8">
         <v>41</v>
       </c>
-      <c r="C63" s="10"/>
+      <c r="C63" s="10">
+        <v>39</v>
+      </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
@@ -3517,14 +3621,16 @@
       <c r="K63" s="10"/>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B64" s="8">
         <v>41</v>
       </c>
-      <c r="C64" s="8"/>
+      <c r="C64" s="10">
+        <v>39</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -3535,14 +3641,16 @@
       <c r="K64" s="8"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B65" s="8">
         <v>41</v>
       </c>
-      <c r="C65" s="10"/>
+      <c r="C65" s="10">
+        <v>39</v>
+      </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
@@ -3553,14 +3661,16 @@
       <c r="K65" s="10"/>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B66" s="8">
         <v>41</v>
       </c>
-      <c r="C66" s="8"/>
+      <c r="C66" s="10">
+        <v>39</v>
+      </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
@@ -3571,14 +3681,16 @@
       <c r="K66" s="8"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B67" s="8">
         <v>41</v>
       </c>
-      <c r="C67" s="10"/>
+      <c r="C67" s="10">
+        <v>39</v>
+      </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
@@ -3589,14 +3701,16 @@
       <c r="K67" s="10"/>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B68" s="8">
         <v>46</v>
       </c>
-      <c r="C68" s="8"/>
+      <c r="C68" s="10">
+        <v>41</v>
+      </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -3607,14 +3721,16 @@
       <c r="K68" s="8"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B69" s="8">
         <v>46</v>
       </c>
-      <c r="C69" s="10"/>
+      <c r="C69" s="10">
+        <v>41</v>
+      </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
@@ -3625,14 +3741,16 @@
       <c r="K69" s="10"/>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="8">
         <v>98</v>
       </c>
-      <c r="C70" s="8"/>
+      <c r="C70" s="8">
+        <v>108</v>
+      </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
@@ -3643,14 +3761,16 @@
       <c r="K70" s="8"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B71" s="10">
         <v>102</v>
       </c>
-      <c r="C71" s="10"/>
+      <c r="C71" s="10">
+        <v>111</v>
+      </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -3661,14 +3781,16 @@
       <c r="K71" s="10"/>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B72" s="8">
         <v>307</v>
       </c>
-      <c r="C72" s="8"/>
+      <c r="C72" s="8">
+        <v>351</v>
+      </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
@@ -3679,14 +3801,16 @@
       <c r="K72" s="8"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B73" s="10">
         <v>369</v>
       </c>
-      <c r="C73" s="10"/>
+      <c r="C73" s="10">
+        <v>393</v>
+      </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -3697,14 +3821,16 @@
       <c r="K73" s="10"/>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B74" s="8">
         <v>175</v>
       </c>
-      <c r="C74" s="8"/>
+      <c r="C74" s="8">
+        <v>213</v>
+      </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
@@ -3715,14 +3841,16 @@
       <c r="K74" s="8"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B75" s="10">
         <v>189</v>
       </c>
-      <c r="C75" s="10"/>
+      <c r="C75" s="10">
+        <v>262</v>
+      </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
@@ -3733,14 +3861,16 @@
       <c r="K75" s="10"/>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B76" s="8">
         <v>49</v>
       </c>
-      <c r="C76" s="8"/>
+      <c r="C76" s="8">
+        <v>48</v>
+      </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
@@ -3751,14 +3881,16 @@
       <c r="K76" s="8"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" s="8">
         <v>49</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" s="10">
+        <v>48</v>
+      </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
@@ -3769,14 +3901,16 @@
       <c r="K77" s="10"/>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B78" s="8">
         <v>68</v>
       </c>
-      <c r="C78" s="8"/>
+      <c r="C78" s="8">
+        <v>66</v>
+      </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
@@ -3787,14 +3921,16 @@
       <c r="K78" s="8"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B79" s="8">
         <v>68</v>
       </c>
-      <c r="C79" s="10"/>
+      <c r="C79" s="10">
+        <v>66</v>
+      </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
@@ -3805,14 +3941,16 @@
       <c r="K79" s="10"/>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B80" s="8">
         <v>47</v>
       </c>
-      <c r="C80" s="8"/>
+      <c r="C80" s="10">
+        <v>45</v>
+      </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
@@ -3823,14 +3961,16 @@
       <c r="K80" s="8"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B81" s="8">
         <v>47</v>
       </c>
-      <c r="C81" s="10"/>
+      <c r="C81" s="8">
+        <v>45</v>
+      </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
@@ -3841,14 +3981,16 @@
       <c r="K81" s="10"/>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>57</v>
       </c>
       <c r="B82" s="8">
         <v>45</v>
       </c>
-      <c r="C82" s="8"/>
+      <c r="C82" s="8">
+        <v>48</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
@@ -3859,14 +4001,16 @@
       <c r="K82" s="8"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="10">
         <v>46</v>
       </c>
-      <c r="C83" s="10"/>
+      <c r="C83" s="10">
+        <v>48</v>
+      </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
@@ -3877,14 +4021,16 @@
       <c r="K83" s="10"/>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B84" s="8">
         <v>241</v>
       </c>
-      <c r="C84" s="8"/>
+      <c r="C84" s="8">
+        <v>240</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
@@ -3895,14 +4041,16 @@
       <c r="K84" s="8"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="8">
         <v>241</v>
       </c>
-      <c r="C85" s="10"/>
+      <c r="C85" s="10">
+        <v>245</v>
+      </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
@@ -3913,14 +4061,16 @@
       <c r="K85" s="10"/>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B86" s="8">
         <v>41</v>
       </c>
-      <c r="C86" s="8"/>
+      <c r="C86" s="8">
+        <v>44</v>
+      </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
@@ -3931,14 +4081,16 @@
       <c r="K86" s="8"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B87" s="8">
         <v>41</v>
       </c>
-      <c r="C87" s="10"/>
+      <c r="C87" s="10">
+        <v>44</v>
+      </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
@@ -3949,14 +4101,16 @@
       <c r="K87" s="10"/>
       <c r="L87" s="11"/>
     </row>
-    <row r="88" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B88" s="8">
         <v>35</v>
       </c>
-      <c r="C88" s="8"/>
+      <c r="C88" s="8">
+        <v>33</v>
+      </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
@@ -3967,14 +4121,16 @@
       <c r="K88" s="8"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B89" s="8">
         <v>35</v>
       </c>
-      <c r="C89" s="10"/>
+      <c r="C89" s="10">
+        <v>33</v>
+      </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
@@ -3985,14 +4141,16 @@
       <c r="K89" s="10"/>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B90" s="8">
         <v>71</v>
       </c>
-      <c r="C90" s="8"/>
+      <c r="C90" s="8">
+        <v>76</v>
+      </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
@@ -4003,14 +4161,16 @@
       <c r="K90" s="8"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" s="10">
         <v>72</v>
       </c>
-      <c r="C91" s="10"/>
+      <c r="C91" s="10">
+        <v>77</v>
+      </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
@@ -4021,14 +4181,16 @@
       <c r="K91" s="10"/>
       <c r="L91" s="11"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B92" s="8">
         <v>41</v>
       </c>
-      <c r="C92" s="8"/>
+      <c r="C92" s="8">
+        <v>40</v>
+      </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
@@ -4039,14 +4201,16 @@
       <c r="K92" s="8"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="10">
         <v>42</v>
       </c>
-      <c r="C93" s="10"/>
+      <c r="C93" s="10">
+        <v>42</v>
+      </c>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
@@ -4057,14 +4221,16 @@
       <c r="K93" s="10"/>
       <c r="L93" s="11"/>
     </row>
-    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B94" s="8">
         <v>74</v>
       </c>
-      <c r="C94" s="8"/>
+      <c r="C94" s="8">
+        <v>97</v>
+      </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
@@ -4075,14 +4241,16 @@
       <c r="K94" s="8"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" s="8">
         <v>74</v>
       </c>
-      <c r="C95" s="10"/>
+      <c r="C95" s="10">
+        <v>97</v>
+      </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -4093,14 +4261,16 @@
       <c r="K95" s="10"/>
       <c r="L95" s="11"/>
     </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B96" s="8">
         <v>70</v>
       </c>
-      <c r="C96" s="8"/>
+      <c r="C96" s="8">
+        <v>91</v>
+      </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
@@ -4111,14 +4281,16 @@
       <c r="K96" s="8"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97" s="8">
         <v>70</v>
       </c>
-      <c r="C97" s="10"/>
+      <c r="C97" s="10">
+        <v>91</v>
+      </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
@@ -4129,14 +4301,16 @@
       <c r="K97" s="10"/>
       <c r="L97" s="11"/>
     </row>
-    <row r="98" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B98" s="8">
         <v>72</v>
       </c>
-      <c r="C98" s="8"/>
+      <c r="C98" s="8">
+        <v>97</v>
+      </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
@@ -4147,14 +4321,16 @@
       <c r="K98" s="8"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B99" s="8">
         <v>72</v>
       </c>
-      <c r="C99" s="12"/>
+      <c r="C99" s="12">
+        <v>97</v>
+      </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -4183,19 +4359,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AA0C21-AB0E-4984-8008-AE93F5440F3E}">
   <dimension ref="A4:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>87</v>
       </c>
@@ -4211,7 +4387,7 @@
       <c r="K5" s="20"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4249,7 +4425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
@@ -4269,9 +4445,9 @@
       <c r="K7" s="8"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="10">
         <v>67</v>
@@ -4289,7 +4465,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>76</v>
       </c>
@@ -4309,9 +4485,9 @@
       <c r="K9" s="8"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="8">
         <v>118</v>
@@ -4329,7 +4505,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>77</v>
       </c>
@@ -4347,9 +4523,9 @@
       <c r="K11" s="8"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="8">
         <v>66</v>
@@ -4365,7 +4541,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>78</v>
       </c>
@@ -4383,9 +4559,9 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="8">
         <v>31</v>
@@ -4401,7 +4577,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>79</v>
       </c>
@@ -4419,9 +4595,9 @@
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="8">
         <v>32</v>
@@ -4437,7 +4613,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>80</v>
       </c>
@@ -4455,9 +4631,9 @@
       <c r="K17" s="8"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="8">
         <v>32</v>
@@ -4473,7 +4649,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>81</v>
       </c>
@@ -4491,9 +4667,9 @@
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="8">
         <v>10</v>
@@ -4509,7 +4685,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>82</v>
       </c>
@@ -4527,9 +4703,9 @@
       <c r="K21" s="8"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="8">
         <v>10</v>
@@ -4545,7 +4721,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>83</v>
       </c>
@@ -4563,9 +4739,9 @@
       <c r="K23" s="8"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -4581,7 +4757,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>84</v>
       </c>
@@ -4599,9 +4775,9 @@
       <c r="K25" s="8"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="10">
         <v>10</v>
@@ -4617,7 +4793,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>85</v>
       </c>
@@ -4635,9 +4811,9 @@
       <c r="K27" s="8"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="8">
         <v>25</v>
@@ -4653,8 +4829,8 @@
       <c r="K28" s="10"/>
       <c r="L28" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>86</v>
       </c>
@@ -4670,7 +4846,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4708,7 +4884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>28</v>
       </c>
@@ -4728,9 +4904,9 @@
       <c r="K33" s="8"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="8">
         <v>934</v>
@@ -4748,7 +4924,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>76</v>
       </c>
@@ -4768,9 +4944,9 @@
       <c r="K35" s="8"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="8">
         <v>1256</v>
@@ -4788,7 +4964,7 @@
       <c r="K36" s="10"/>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>77</v>
       </c>
@@ -4806,9 +4982,9 @@
       <c r="K37" s="8"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="8">
         <v>704</v>
@@ -4824,7 +5000,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>78</v>
       </c>
@@ -4842,9 +5018,9 @@
       <c r="K39" s="8"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="8">
         <v>321</v>
@@ -4860,7 +5036,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>79</v>
       </c>
@@ -4878,9 +5054,9 @@
       <c r="K41" s="8"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B42" s="8">
         <v>329</v>
@@ -4896,7 +5072,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>80</v>
       </c>
@@ -4914,9 +5090,9 @@
       <c r="K43" s="8"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B44" s="8">
         <v>329</v>
@@ -4932,7 +5108,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>81</v>
       </c>
@@ -4950,9 +5126,9 @@
       <c r="K45" s="8"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="8">
         <v>146</v>
@@ -4968,7 +5144,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>82</v>
       </c>
@@ -4986,9 +5162,9 @@
       <c r="K47" s="8"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="8">
         <v>146</v>
@@ -5004,7 +5180,7 @@
       <c r="K48" s="10"/>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>83</v>
       </c>
@@ -5022,9 +5198,9 @@
       <c r="K49" s="8"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="8">
         <v>11</v>
@@ -5040,7 +5216,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>84</v>
       </c>
@@ -5058,9 +5234,9 @@
       <c r="K51" s="8"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="10">
         <v>127</v>
@@ -5076,7 +5252,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>85</v>
       </c>
@@ -5094,9 +5270,9 @@
       <c r="K53" s="8"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="8">
         <v>268</v>
@@ -5133,22 +5309,22 @@
       <selection activeCell="F4" sqref="A4:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5157,8 +5333,8 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5178,7 +5354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5198,7 +5374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5206,7 +5382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -5220,7 +5396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -5228,7 +5404,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
